--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail10 Features.xlsx
@@ -4487,7 +4487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4498,29 +4498,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4541,115 +4539,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4666,72 +4654,66 @@
         <v>3.056480661253192e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.8582050455632542</v>
+        <v>1.58043502104121e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.3121692985276647</v>
+        <v>3.698670320214489e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.58043502104121e-06</v>
+        <v>0.03621971556847217</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.698670320214489e-06</v>
+        <v>0.2688840377889118</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03621971556847217</v>
+        <v>0.0734886581954565</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2688840377889118</v>
+        <v>1.913467749942035</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.0734886581954565</v>
+        <v>2.498222868139823</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.921675127455178</v>
+        <v>5.73045835983592</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.498222868139823</v>
+        <v>8.451448464264609e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.73045835983592</v>
+        <v>2305610075.965093</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.451448464264609e-17</v>
+        <v>5.218450253217733e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>2305610075.965093</v>
+        <v>449.2652940033256</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.218450253217733e-08</v>
+        <v>0.0001085725720631911</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>449.2652940033256</v>
+        <v>9.59807045110569</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001085725720631911</v>
+        <v>1.368071402524552</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.59807045110569</v>
+        <v>0.0100020263207182</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.368071402524552</v>
+        <v>3.528533547248285</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0100020263207182</v>
+        <v>0.9570588396476905</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.528533547248285</v>
+        <v>1.307686415310866</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9570588396476905</v>
+        <v>20</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.307686415310866</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.145391793256217</v>
       </c>
     </row>
@@ -4746,72 +4728,66 @@
         <v>2.857551170019265e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.5378163959714589</v>
+        <v>1.211935940654536e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8806865381659703</v>
+        <v>3.706373001454892e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.211935940654536e-06</v>
+        <v>0.01630577191276915</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.706373001454892e-06</v>
+        <v>0.2367631076527889</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01630577191276915</v>
+        <v>0.05624002332148671</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2367631076527889</v>
+        <v>1.912199659768289</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05624002332148671</v>
+        <v>2.715992659218546</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.921209779784748</v>
+        <v>5.679675202127437</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.715992659218546</v>
+        <v>8.603256435309526e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.679675202127437</v>
+        <v>2265577241.327397</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.603256435309526e-17</v>
+        <v>5.311836976013482e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2265577241.327397</v>
+        <v>441.5914079540171</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.311836976013482e-08</v>
+        <v>0.0001222991981413175</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>441.5914079540171</v>
+        <v>10.83638322134638</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001222991981413175</v>
+        <v>1.268746480756904</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.83638322134638</v>
+        <v>0.01436125256140005</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.268746480756904</v>
+        <v>3.520893367132286</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01436125256140005</v>
+        <v>0.9578665435135225</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.520893367132286</v>
+        <v>1.311297665572868</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9578665435135225</v>
+        <v>17</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.311297665572868</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.390703704818848</v>
       </c>
     </row>
@@ -4826,72 +4802,66 @@
         <v>2.812568341004255e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.4770018593275597</v>
+        <v>9.499239479914598e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.058126996543044</v>
+        <v>3.708387145656972e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.499239479914598e-07</v>
+        <v>-0.001539628665798835</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.708387145656972e-06</v>
+        <v>0.201269455363748</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.001539628665798835</v>
+        <v>0.04045520971151383</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.201269455363748</v>
+        <v>1.903528072265213</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04045520971151383</v>
+        <v>2.366109326199374</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.914522265091605</v>
+        <v>4.896966768424</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.366109326199374</v>
+        <v>1.157325589993719e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.896966768424</v>
+        <v>1660410723.956062</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.157325589993719e-16</v>
+        <v>7.236928413770106e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1660410723.956062</v>
+        <v>319.0704724285418</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.236928413770106e-08</v>
+        <v>0.000102201929120656</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>319.0704724285418</v>
+        <v>8.73354110537813</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000102201929120656</v>
+        <v>1.384122916699644</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.73354110537813</v>
+        <v>0.007795425595636398</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.384122916699644</v>
+        <v>3.994372840110551</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007795425595636398</v>
+        <v>0.9577600342220222</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.994372840110551</v>
+        <v>1.379067870640701</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9577600342220222</v>
+        <v>17</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.379067870640701</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.684293337521694</v>
       </c>
     </row>
@@ -4906,72 +4876,66 @@
         <v>2.855577122848401e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.5021097897927601</v>
+        <v>9.672466199820213e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.025739441951104</v>
+        <v>3.705723984566348e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.672466199820213e-07</v>
+        <v>-0.0166238138265752</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.705723984566348e-06</v>
+        <v>0.1647106119856447</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0166238138265752</v>
+        <v>0.02736782412068025</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1647106119856447</v>
+        <v>1.913129464270592</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02736782412068025</v>
+        <v>2.237541300429639</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.928967652700048</v>
+        <v>4.930647418603456</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.237541300429639</v>
+        <v>1.141568492389711e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.930647418603456</v>
+        <v>1671815601.704413</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.141568492389711e-16</v>
+        <v>7.22038823982501e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1671815601.704413</v>
+        <v>319.0646728062569</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.22038823982501e-08</v>
+        <v>8.701011947577791e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>319.0646728062569</v>
+        <v>7.133956237777925</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>8.701011947577791e-05</v>
+        <v>2.270828426433848</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.133956237777925</v>
+        <v>0.004428234863256568</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.270828426433848</v>
+        <v>4.310114244352059</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.004428234863256568</v>
+        <v>0.9590424824035226</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.310114244352059</v>
+        <v>1.284212327313474</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9590424824035226</v>
+        <v>21</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.284212327313474</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.835280431748763</v>
       </c>
     </row>
@@ -4986,72 +4950,66 @@
         <v>2.938591880708975e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.5113473783808277</v>
+        <v>9.841362478386964e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.054243826214103</v>
+        <v>3.699166581488866e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.841362478386964e-07</v>
+        <v>-0.02784841182430896</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.699166581488866e-06</v>
+        <v>0.1348656543064176</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02784841182430896</v>
+        <v>0.01894424186778089</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1348656543064176</v>
+        <v>1.914658368915068</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01894424186778089</v>
+        <v>2.404037598035418</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.931993322098047</v>
+        <v>5.252668364864258</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.404037598035418</v>
+        <v>8.474132915586464e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.252668364864258</v>
+        <v>2306363600.194348</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.474132915586464e-17</v>
+        <v>5.242509976835459e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2306363600.194348</v>
+        <v>450.7656585871284</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.242509976835459e-08</v>
+        <v>7.285819926407666e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>450.7656585871284</v>
+        <v>6.575124533610171</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>7.285819926407666e-05</v>
+        <v>1.435641032668399</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.575124533610171</v>
+        <v>0.003149824805514296</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.435641032668399</v>
+        <v>4.130107285417588</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.003149824805514296</v>
+        <v>0.9590901936795536</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.130107285417588</v>
+        <v>1.272822830369805</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9590901936795536</v>
+        <v>21</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.272822830369805</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.784224581204148</v>
       </c>
     </row>
@@ -5066,72 +5024,66 @@
         <v>3.030625312281961e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.4883895023903627</v>
+        <v>9.994899377475982e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.123424154668896</v>
+        <v>3.689573156185572e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.994899377475982e-07</v>
+        <v>-0.03600621771331916</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.689573156185572e-06</v>
+        <v>0.1121238411307095</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03600621771331916</v>
+        <v>0.01385467750856662</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1121238411307095</v>
+        <v>1.91826389773544</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01385467750856662</v>
+        <v>2.685528386469043</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.935424499457414</v>
+        <v>5.393595794998588</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.685528386469043</v>
+        <v>9.109467175064143e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.393595794998588</v>
+        <v>2206742497.389746</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.109467175064143e-17</v>
+        <v>5.482616717401796e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2206742497.389746</v>
+        <v>443.6048571332616</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.482616717401796e-08</v>
+        <v>8.069665669266452e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>443.6048571332616</v>
+        <v>6.103642833008504</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>8.069665669266452e-05</v>
+        <v>1.412534866502922</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.103642833008504</v>
+        <v>0.003006310032622476</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.412534866502922</v>
+        <v>3.905058230501004</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.003006310032622476</v>
+        <v>0.958836780562876</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.905058230501004</v>
+        <v>1.268564849394185</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.958836780562876</v>
+        <v>14</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.268564849394185</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.245195064132024</v>
       </c>
     </row>
@@ -5146,72 +5098,66 @@
         <v>3.115273627214671e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.4452523924544167</v>
+        <v>1.012122754484188e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.191201279025091</v>
+        <v>3.677460296140567e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.012122754484188e-06</v>
+        <v>-0.04234416922080948</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.677460296140567e-06</v>
+        <v>0.09324684506395287</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04234416922080948</v>
+        <v>0.01048093581430623</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.09324684506395287</v>
+        <v>1.91520399849054</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01048093581430623</v>
+        <v>2.487796863556285</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.933633034801885</v>
+        <v>5.383953253432404</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.487796863556285</v>
+        <v>1.258791460992894e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.383953253432404</v>
+        <v>1582294734.641954</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.258791460992894e-16</v>
+        <v>7.644493490703931e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1582294734.641954</v>
+        <v>315.1581583672859</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.644493490703931e-08</v>
+        <v>9.64946252416642e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>315.1581583672859</v>
+        <v>6.288813350259896</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>9.64946252416642e-05</v>
+        <v>1.660870780785314</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>6.288813350259896</v>
+        <v>0.003816282661451125</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.660870780785314</v>
+        <v>3.764327537321141</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.003816282661451125</v>
+        <v>0.959223926397921</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.764327537321141</v>
+        <v>1.272300712506631</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.959223926397921</v>
+        <v>14</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.272300712506631</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.8452300963658257</v>
       </c>
     </row>
@@ -5226,72 +5172,66 @@
         <v>3.184970330439134e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.3962291762523609</v>
+        <v>1.020827848898473e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.244678995131983</v>
+        <v>3.663479556797223e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.020827848898473e-06</v>
+        <v>-0.04570733560668089</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.663479556797223e-06</v>
+        <v>0.08373670445082379</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04570733560668089</v>
+        <v>0.009100190543608111</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08373670445082379</v>
+        <v>1.920284004251032</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.009100190543608111</v>
+        <v>2.351570235512207</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.935684670263669</v>
+        <v>5.245255708450463</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.351570235512207</v>
+        <v>2.049960398385919e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.245255708450463</v>
+        <v>965503071.8028361</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.049960398385919e-16</v>
+        <v>1.254050975234254e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>965503071.8028361</v>
+        <v>191.0965255931027</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.254050975234254e-07</v>
+        <v>0.0001370645600690956</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>191.0965255931027</v>
+        <v>8.404948966173938</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001370645600690956</v>
+        <v>1.509399559449563</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.404948966173938</v>
+        <v>0.009682674623737062</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.509399559449563</v>
+        <v>3.418281840429789</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.009682674623737062</v>
+        <v>0.9599919547011392</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.418281840429789</v>
+        <v>1.27786211553772</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9599919547011392</v>
+        <v>14</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.27786211553772</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.6187957484958806</v>
       </c>
     </row>
@@ -5668,7 +5608,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.397406808036449</v>
+        <v>1.397066688917266</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.452184941457691</v>
@@ -5757,7 +5697,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.428288781204275</v>
+        <v>1.42467254101957</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.159548692597503</v>
@@ -5846,7 +5786,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.447385962565856</v>
+        <v>1.439040238537461</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.384778055557215</v>
@@ -5935,7 +5875,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.445733463615763</v>
+        <v>1.439237695360301</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.309716862718139</v>
@@ -6024,7 +5964,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.476268797167398</v>
+        <v>1.462313123763277</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.520983127795902</v>
@@ -6113,7 +6053,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.495270551833727</v>
+        <v>1.479613931742383</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.320032150079334</v>
@@ -6202,7 +6142,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.51955759898278</v>
+        <v>1.502056923772729</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.399078937233621</v>
@@ -6291,7 +6231,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.526902004808848</v>
+        <v>1.512167489126737</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.264877685182335</v>
@@ -6380,7 +6320,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.538680836546438</v>
+        <v>1.516984391880969</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.601393171627225</v>
@@ -6469,7 +6409,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.542514727696456</v>
+        <v>1.522241000494915</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.382629191932681</v>
@@ -6558,7 +6498,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.564421657810906</v>
+        <v>1.545288513419127</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.444333839615855</v>
@@ -6647,7 +6587,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.533240510631651</v>
+        <v>1.521367399867374</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.361897221151633</v>
@@ -6736,7 +6676,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.525083935142507</v>
+        <v>1.513637524628624</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.431904455199295</v>
@@ -6825,7 +6765,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.541563324536955</v>
+        <v>1.524048687204116</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.528212672479377</v>
@@ -6914,7 +6854,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.509437638789688</v>
+        <v>1.493620149816552</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.392433840289304</v>
@@ -7003,7 +6943,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.528827472357658</v>
+        <v>1.515360571251597</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.351730437260258</v>
@@ -7092,7 +7032,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.506900174089227</v>
+        <v>1.489386941267909</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.15955219201791</v>
@@ -7181,7 +7121,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.51253621529591</v>
+        <v>1.48842282897301</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.485548542168833</v>
@@ -7270,7 +7210,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.516360422759752</v>
+        <v>1.492868836020611</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.431045248681231</v>
@@ -7359,7 +7299,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.529628740485523</v>
+        <v>1.504812464290143</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.523913475827247</v>
@@ -7448,7 +7388,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.523321163102717</v>
+        <v>1.493970615629444</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.438510396864868</v>
@@ -7537,7 +7477,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.517052704988336</v>
+        <v>1.48208050480958</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.413487103639235</v>
@@ -7626,7 +7566,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.502651887609761</v>
+        <v>1.470928538598417</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.429830466315344</v>
@@ -7715,7 +7655,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.501813487708654</v>
+        <v>1.46995349584033</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.455783045617574</v>
@@ -7804,7 +7744,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.475106491110411</v>
+        <v>1.447830103286707</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.4794447379071</v>
@@ -7893,7 +7833,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.457491460647421</v>
+        <v>1.428694683510831</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.443631821082362</v>
@@ -7982,7 +7922,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.470846888517744</v>
+        <v>1.44105258827252</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.362482025561267</v>
@@ -8071,7 +8011,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.481901999834843</v>
+        <v>1.457058703551651</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.502469802858379</v>
@@ -8160,7 +8100,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.495346735379135</v>
+        <v>1.464958741481009</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.3372866211552</v>
@@ -8249,7 +8189,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.485234865593724</v>
+        <v>1.455390059347352</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.227417997091817</v>
@@ -8338,7 +8278,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.484667464718921</v>
+        <v>1.451065174756578</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.27322697318181</v>
@@ -8427,7 +8367,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.474265591365033</v>
+        <v>1.446855072289835</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.518107109278958</v>
@@ -8516,7 +8456,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.479291579778574</v>
+        <v>1.452981864700875</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.290761644858885</v>
@@ -8605,7 +8545,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.471670086648042</v>
+        <v>1.450726784097006</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.458424257974543</v>
@@ -8694,7 +8634,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.469848835763308</v>
+        <v>1.454270684161585</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.452593616243519</v>
@@ -8783,7 +8723,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.467482731905511</v>
+        <v>1.455159039529337</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.41987676821856</v>
@@ -8872,7 +8812,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.495531952402777</v>
+        <v>1.479546855243147</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.520587748710351</v>
@@ -8961,7 +8901,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.497243547129316</v>
+        <v>1.483301427140944</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.416297658535898</v>
@@ -9050,7 +8990,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.503459572132659</v>
+        <v>1.491271477852454</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.398637733084538</v>
@@ -9139,7 +9079,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.527364221504423</v>
+        <v>1.508901497285627</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.429607300090484</v>
@@ -9228,7 +9168,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.538133120502965</v>
+        <v>1.509642969613903</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.437704738252056</v>
@@ -9317,7 +9257,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.529580103394743</v>
+        <v>1.512603213763365</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.402577960824166</v>
@@ -9406,7 +9346,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.527904948906138</v>
+        <v>1.508091036727322</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.426715256223508</v>
@@ -9495,7 +9435,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.499183771271738</v>
+        <v>1.483492336952111</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.333504735516577</v>
@@ -9584,7 +9524,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.544510153908892</v>
+        <v>1.524802364002799</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.290227504067052</v>
@@ -9673,7 +9613,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.543604812278669</v>
+        <v>1.521808186067904</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.483036164622812</v>
@@ -9762,7 +9702,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.55336582187677</v>
+        <v>1.53256597381051</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.533466871427344</v>
@@ -9851,7 +9791,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.560317116785047</v>
+        <v>1.539473337526099</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.40960416460226</v>
@@ -9940,7 +9880,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.592451341878874</v>
+        <v>1.56213135072618</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.495835589653381</v>
@@ -10029,7 +9969,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.598338773766683</v>
+        <v>1.562892682550089</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.668300659558997</v>
@@ -10118,7 +10058,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.571093679716544</v>
+        <v>1.540682564631661</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.49708964818642</v>
@@ -10207,7 +10147,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.568789716839565</v>
+        <v>1.540273883412429</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.401717497843323</v>
@@ -10296,7 +10236,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.543099590360998</v>
+        <v>1.516203984163495</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.389068411928368</v>
@@ -10582,7 +10522,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.416762852586294</v>
+        <v>1.427673813013977</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.713883364448487</v>
@@ -10671,7 +10611,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.407760606959726</v>
+        <v>1.416330520687335</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.69487696035492</v>
@@ -10760,7 +10700,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.381801800678315</v>
+        <v>1.39053798126602</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.255249021955152</v>
@@ -10849,7 +10789,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.37525422988339</v>
+        <v>1.384443277115916</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.288325126576749</v>
@@ -10938,7 +10878,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.365454532338481</v>
+        <v>1.371556356932362</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.471543875263418</v>
@@ -11027,7 +10967,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.372918104221517</v>
+        <v>1.375500370017305</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.412685640854814</v>
@@ -11116,7 +11056,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.381783059767178</v>
+        <v>1.385073305484873</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.162741704895108</v>
@@ -11205,7 +11145,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.389875757536344</v>
+        <v>1.391481041392584</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.049467135385569</v>
@@ -11294,7 +11234,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.407141407438639</v>
+        <v>1.405460918727541</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.262211472836038</v>
@@ -11383,7 +11323,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.389667620526297</v>
+        <v>1.387214957584026</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.283912706885999</v>
@@ -11472,7 +11412,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.384361857723512</v>
+        <v>1.37618352071237</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.296996265421032</v>
@@ -11561,7 +11501,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.36350364240496</v>
+        <v>1.359001672809239</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.258195775191798</v>
@@ -11650,7 +11590,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.375030800283436</v>
+        <v>1.376970247671428</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.051519505056329</v>
@@ -11739,7 +11679,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.385503429416018</v>
+        <v>1.38719260821406</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.373173242231077</v>
@@ -11828,7 +11768,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.400595989058125</v>
+        <v>1.405934400217137</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.253442983790598</v>
@@ -11917,7 +11857,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.419073236369122</v>
+        <v>1.42592571066124</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.295173019465547</v>
@@ -12006,7 +11946,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.44188602703294</v>
+        <v>1.449154365308696</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.271171306351079</v>
@@ -12095,7 +12035,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.492634333162986</v>
+        <v>1.499486429812131</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.337943381919245</v>
@@ -12184,7 +12124,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.510228226108705</v>
+        <v>1.517578706907677</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.732348233247947</v>
@@ -12273,7 +12213,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.5201282791306</v>
+        <v>1.524472854760064</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.793231751439752</v>
@@ -12362,7 +12302,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.518504497468398</v>
+        <v>1.524035051410515</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.94980505392085</v>
@@ -12451,7 +12391,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.513517844025974</v>
+        <v>1.520755067320285</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.90954617031817</v>
@@ -12540,7 +12480,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.514425272975222</v>
+        <v>1.520914143349486</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.756598904692439</v>
@@ -12629,7 +12569,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.509749672209294</v>
+        <v>1.513133413025282</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.57685125098137</v>
@@ -12718,7 +12658,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.521467211133283</v>
+        <v>1.524493289099994</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.76294520031296</v>
@@ -12807,7 +12747,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.523463955677693</v>
+        <v>1.517560048847972</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.573327066441934</v>
@@ -12896,7 +12836,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.538560656010195</v>
+        <v>1.535200895910585</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.697165510547757</v>
@@ -12985,7 +12925,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.542140684811063</v>
+        <v>1.534046134115415</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.809436194115241</v>
@@ -13074,7 +13014,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.532552853618871</v>
+        <v>1.521526284486722</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.431387760645706</v>
@@ -13163,7 +13103,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.508720076538499</v>
+        <v>1.494200314963235</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.622314916101765</v>
@@ -13252,7 +13192,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.486222020619302</v>
+        <v>1.466516359475664</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.688561397600199</v>
@@ -13341,7 +13281,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.491538478355592</v>
+        <v>1.47487990142252</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.560385989373267</v>
@@ -13430,7 +13370,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.472491715639359</v>
+        <v>1.448444194851809</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.641285323332255</v>
@@ -13519,7 +13459,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.474504546932402</v>
+        <v>1.45227209267768</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.634597620168341</v>
@@ -13608,7 +13548,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.471817829991996</v>
+        <v>1.450807354194909</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.498742054943754</v>
@@ -13697,7 +13637,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.47638765719842</v>
+        <v>1.457534674592611</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.695190903901544</v>
@@ -13786,7 +13726,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.473655512850562</v>
+        <v>1.455769231717922</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.603584635254079</v>
@@ -13875,7 +13815,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.488229296055245</v>
+        <v>1.462297966613442</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.589570948926412</v>
@@ -13964,7 +13904,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.500477524414734</v>
+        <v>1.476334265291526</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.63040636148964</v>
@@ -14053,7 +13993,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.49811303076126</v>
+        <v>1.471254774330743</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.60027465875898</v>
@@ -14142,7 +14082,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.495720621883069</v>
+        <v>1.47345966643868</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.414999893882522</v>
@@ -14231,7 +14171,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.488189119384152</v>
+        <v>1.465522934994697</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.517769445382163</v>
@@ -14320,7 +14260,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.486820802198199</v>
+        <v>1.463526461972978</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.578056522289863</v>
@@ -14409,7 +14349,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.496363014409305</v>
+        <v>1.46677427243709</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.539851432535886</v>
@@ -14498,7 +14438,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.526094072490319</v>
+        <v>1.503593507395991</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.904609251187785</v>
@@ -14587,7 +14527,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.534389898771459</v>
+        <v>1.505901788770925</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.846823668252227</v>
@@ -14676,7 +14616,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.529669689672474</v>
+        <v>1.493219947332852</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.756695216647393</v>
@@ -14765,7 +14705,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.5124196754216</v>
+        <v>1.487305135178348</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.896534606684043</v>
@@ -14854,7 +14794,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.490613435547351</v>
+        <v>1.469274701877322</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.52596499318234</v>
@@ -14943,7 +14883,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.483151662221912</v>
+        <v>1.461658568523925</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.717448608361788</v>
@@ -15032,7 +14972,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.461172077424163</v>
+        <v>1.439441937499089</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.646449628131279</v>
@@ -15121,7 +15061,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.459762547036254</v>
+        <v>1.440035287259777</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.754165258811486</v>
@@ -15210,7 +15150,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.453689273528348</v>
+        <v>1.433979084724267</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.666247407324273</v>
@@ -15496,7 +15436,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.610546445776546</v>
+        <v>1.565187258593588</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.074022519610502</v>
@@ -15585,7 +15525,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.62670764656828</v>
+        <v>1.580628875590973</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.465384350108916</v>
@@ -15674,7 +15614,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.637051246387295</v>
+        <v>1.585575126395695</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.944192399067652</v>
@@ -15763,7 +15703,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.631072731917435</v>
+        <v>1.580666623769809</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.818034160784284</v>
@@ -15852,7 +15792,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.627101370886371</v>
+        <v>1.582264534968569</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.93358266656557</v>
@@ -15941,7 +15881,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.623672291430666</v>
+        <v>1.579272248731574</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.899364412598428</v>
@@ -16030,7 +15970,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.629612976995707</v>
+        <v>1.585101303735448</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.01867228741206</v>
@@ -16119,7 +16059,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.646531304775406</v>
+        <v>1.597448535963989</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.503875461342872</v>
@@ -16208,7 +16148,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.664426667678835</v>
+        <v>1.603315762206909</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.779719299838125</v>
@@ -16297,7 +16237,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.661182553387325</v>
+        <v>1.603901391851428</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.162739505187015</v>
@@ -16386,7 +16326,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.668271066415477</v>
+        <v>1.613171180502585</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.102023982988368</v>
@@ -16475,7 +16415,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.658768398774308</v>
+        <v>1.6127188514523</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.937053486498284</v>
@@ -16564,7 +16504,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.662851588355112</v>
+        <v>1.61191951741077</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.022953442051952</v>
@@ -16653,7 +16593,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.669091977423056</v>
+        <v>1.61493711602065</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.11408256303528</v>
@@ -16742,7 +16682,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.678311983268969</v>
+        <v>1.626631534624115</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.976207490738773</v>
@@ -16831,7 +16771,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.688335470986782</v>
+        <v>1.633565211973859</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.071139002509529</v>
@@ -16920,7 +16860,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.678519398164379</v>
+        <v>1.612965629583241</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.874111899403445</v>
@@ -17009,7 +16949,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.68041378786568</v>
+        <v>1.606253083663734</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.977697682015385</v>
@@ -17098,7 +17038,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.689545955958298</v>
+        <v>1.608299870435046</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.961575247972365</v>
@@ -17187,7 +17127,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.707921940192652</v>
+        <v>1.608800637528379</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.920401122105754</v>
@@ -17276,7 +17216,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.715842068631028</v>
+        <v>1.610177664945114</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.266361877815515</v>
@@ -17365,7 +17305,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.707182243396021</v>
+        <v>1.59355875594046</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.359294880314883</v>
@@ -17454,7 +17394,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.699511458830558</v>
+        <v>1.575084052293529</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.49837857891844</v>
@@ -17543,7 +17483,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.68994307848743</v>
+        <v>1.565595116706019</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.366553127650485</v>
@@ -17632,7 +17572,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.694938018801269</v>
+        <v>1.578772457229966</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.17346658898823</v>
@@ -17721,7 +17661,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.691678701808095</v>
+        <v>1.568920044063004</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.305276532257097</v>
@@ -17810,7 +17750,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.684149125538676</v>
+        <v>1.564696689768068</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.248809494440695</v>
@@ -17899,7 +17839,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.679671279742437</v>
+        <v>1.567009309841817</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.447697526780173</v>
@@ -17988,7 +17928,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.682322379762172</v>
+        <v>1.565020746723806</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.033384669742631</v>
@@ -18077,7 +18017,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.67920273361468</v>
+        <v>1.560596787295983</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.901737177165657</v>
@@ -18166,7 +18106,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.672966729918735</v>
+        <v>1.559043778648154</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.045345566359694</v>
@@ -18255,7 +18195,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.672033935524113</v>
+        <v>1.565887949037074</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.011082720624103</v>
@@ -18344,7 +18284,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.676757692321775</v>
+        <v>1.574571493655144</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.122344633284404</v>
@@ -18433,7 +18373,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.667109409611345</v>
+        <v>1.573262739812392</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.566103698226223</v>
@@ -18522,7 +18462,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.66739038971831</v>
+        <v>1.581065634175177</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.245433652337647</v>
@@ -18611,7 +18551,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.656269909496143</v>
+        <v>1.574141709076823</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.170125793366661</v>
@@ -18700,7 +18640,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.672957457425099</v>
+        <v>1.590519662184431</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.208705447647027</v>
@@ -18789,7 +18729,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.684853474765549</v>
+        <v>1.611802456626984</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.686576464797942</v>
@@ -18878,7 +18818,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.693265484073703</v>
+        <v>1.621023195391353</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.49234782731128</v>
@@ -18967,7 +18907,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.701430998652335</v>
+        <v>1.617729104739009</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.710085296764272</v>
@@ -19056,7 +18996,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.69927446661215</v>
+        <v>1.61869201324914</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.399808633277356</v>
@@ -19145,7 +19085,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.710650770786477</v>
+        <v>1.634608831173973</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.725829845245257</v>
@@ -19234,7 +19174,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.708975530621321</v>
+        <v>1.624695379175912</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.380894637902377</v>
@@ -19323,7 +19263,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.692047394436464</v>
+        <v>1.616377433680931</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.651881813505249</v>
@@ -19412,7 +19352,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.71133581560865</v>
+        <v>1.624551551782664</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.791508088479359</v>
@@ -19501,7 +19441,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.699690982613256</v>
+        <v>1.613887992385212</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.224963449531999</v>
@@ -19590,7 +19530,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.707228352857355</v>
+        <v>1.620761214245426</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.390624844027237</v>
@@ -19679,7 +19619,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.70907178974167</v>
+        <v>1.617491994047113</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.491520291796217</v>
@@ -19768,7 +19708,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.720064285137889</v>
+        <v>1.621447973866079</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.286618948076268</v>
@@ -19857,7 +19797,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.717927932834212</v>
+        <v>1.620330582796833</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.487551013657538</v>
@@ -19946,7 +19886,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.724022249414877</v>
+        <v>1.624421901951472</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.738421907826119</v>
@@ -20035,7 +19975,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.708960460788995</v>
+        <v>1.616535491251868</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.923123856953934</v>
@@ -20124,7 +20064,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.703087834542723</v>
+        <v>1.606818075250873</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.300047362410309</v>
@@ -20410,7 +20350,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.719088188869293</v>
+        <v>1.687979149291312</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.263952465217422</v>
@@ -20499,7 +20439,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.733723077729661</v>
+        <v>1.699807767710069</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.150162079667301</v>
@@ -20588,7 +20528,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.707427459343377</v>
+        <v>1.683479355557172</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.898952459840264</v>
@@ -20677,7 +20617,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.706746058777048</v>
+        <v>1.68392503543715</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.785545523431673</v>
@@ -20766,7 +20706,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.704775627845142</v>
+        <v>1.685537168075324</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.912237866301229</v>
@@ -20855,7 +20795,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.705902450581837</v>
+        <v>1.68929909029097</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.099032205370202</v>
@@ -20944,7 +20884,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.708440401085511</v>
+        <v>1.690676817633502</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.030635482186357</v>
@@ -21033,7 +20973,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.715030597196761</v>
+        <v>1.690447863656178</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.81866321195337</v>
@@ -21122,7 +21062,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.71198525291606</v>
+        <v>1.684190249708628</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.094051232024268</v>
@@ -21211,7 +21151,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.716725679234988</v>
+        <v>1.683825053815678</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.655507779066986</v>
@@ -21300,7 +21240,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.722296574822805</v>
+        <v>1.687511756598156</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.941167743165712</v>
@@ -21389,7 +21329,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.700182544505331</v>
+        <v>1.673582369296849</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.886564237826389</v>
@@ -21478,7 +21418,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.70659025852465</v>
+        <v>1.673358980146654</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.085002524670402</v>
@@ -21567,7 +21507,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.710903618500219</v>
+        <v>1.667732258085279</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.032634261637725</v>
@@ -21656,7 +21596,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.732228178699857</v>
+        <v>1.681283290086178</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.595057732477645</v>
@@ -21745,7 +21685,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.731834158901419</v>
+        <v>1.671218615854654</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.012305146047846</v>
@@ -21834,7 +21774,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.723428841711339</v>
+        <v>1.655577765452013</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.127070484046614</v>
@@ -21923,7 +21863,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.750422337351061</v>
+        <v>1.671736524145367</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.144055256343647</v>
@@ -22012,7 +21952,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.758478934399477</v>
+        <v>1.678753380270142</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.536505951499112</v>
@@ -22101,7 +22041,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.762482700955808</v>
+        <v>1.676472262071288</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.329381332708605</v>
@@ -22190,7 +22130,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.760195052057419</v>
+        <v>1.670473722858479</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.864526709477378</v>
@@ -22279,7 +22219,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.744595521288554</v>
+        <v>1.652697296129992</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.645357672741311</v>
@@ -22368,7 +22308,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.7422602636328</v>
+        <v>1.654190250445587</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.947410230742512</v>
@@ -22457,7 +22397,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.755212845391843</v>
+        <v>1.67164644955232</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.281641776786578</v>
@@ -22546,7 +22486,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.747128307603223</v>
+        <v>1.673836077262467</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.813981245972924</v>
@@ -22635,7 +22575,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.756438265359338</v>
+        <v>1.680785870732994</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.013019301489781</v>
@@ -22724,7 +22664,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.771192430700047</v>
+        <v>1.69559069858216</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.915974443460712</v>
@@ -22813,7 +22753,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.776842733426504</v>
+        <v>1.706548877178172</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.622468039161614</v>
@@ -22902,7 +22842,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.776737590078894</v>
+        <v>1.713428377968822</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.919857395890867</v>
@@ -22991,7 +22931,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.767853707193546</v>
+        <v>1.71136793677043</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.581232686272342</v>
@@ -23080,7 +23020,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.761222856211922</v>
+        <v>1.708372088777369</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.862858976429162</v>
@@ -23169,7 +23109,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.762654366536161</v>
+        <v>1.714768587929858</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.525687635685628</v>
@@ -23258,7 +23198,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.757647295926106</v>
+        <v>1.714258483678847</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.427487151599852</v>
@@ -23347,7 +23287,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.743769864690638</v>
+        <v>1.703233110651829</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.849531698642378</v>
@@ -23436,7 +23376,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.738722760334111</v>
+        <v>1.704837267913169</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.536972115369577</v>
@@ -23525,7 +23465,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.739286689711695</v>
+        <v>1.705559735828209</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.487377875482065</v>
@@ -23614,7 +23554,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.743100095938981</v>
+        <v>1.71530803788669</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.346432032301816</v>
@@ -23703,7 +23643,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.729181687109978</v>
+        <v>1.700796088606156</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.467702280870165</v>
@@ -23792,7 +23732,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.718358862106122</v>
+        <v>1.689133766367839</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.48536019323141</v>
@@ -23881,7 +23821,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.72610640190499</v>
+        <v>1.693252368480331</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.417410383946986</v>
@@ -23970,7 +23910,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.699232841392438</v>
+        <v>1.67770975169172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.719930970572691</v>
@@ -24059,7 +23999,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.690060182794505</v>
+        <v>1.669284829687049</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.811494052753887</v>
@@ -24148,7 +24088,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.681027057049533</v>
+        <v>1.652555982922983</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.938488322487954</v>
@@ -24237,7 +24177,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.670514140292648</v>
+        <v>1.63706237630881</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.685004690627438</v>
@@ -24326,7 +24266,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.676439668853408</v>
+        <v>1.644195375950785</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.649222652053627</v>
@@ -24415,7 +24355,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.681471412630305</v>
+        <v>1.64892932499802</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.766634808202408</v>
@@ -24504,7 +24444,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.675990595064762</v>
+        <v>1.649427224578445</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.769701074278371</v>
@@ -24593,7 +24533,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.680621907565641</v>
+        <v>1.645616378540055</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.909973146460015</v>
@@ -24682,7 +24622,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.691916291584877</v>
+        <v>1.652584422729165</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.798379360057178</v>
@@ -24771,7 +24711,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.687065615947787</v>
+        <v>1.647512055603453</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.952547760449846</v>
@@ -24860,7 +24800,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.698001304412357</v>
+        <v>1.657996874408975</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.889508792132472</v>
@@ -24949,7 +24889,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.710325497978336</v>
+        <v>1.665732695328883</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.898694293016529</v>
@@ -25038,7 +24978,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.716673252901395</v>
+        <v>1.666562185369244</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.822386341548994</v>
@@ -25324,7 +25264,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.481579774931927</v>
+        <v>1.496461011883936</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.737898368919382</v>
@@ -25413,7 +25353,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.48285207547978</v>
+        <v>1.496804890802164</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.760418024741342</v>
@@ -25502,7 +25442,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.483055713151856</v>
+        <v>1.493904185851641</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.566315717120906</v>
@@ -25591,7 +25531,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.468723439004389</v>
+        <v>1.482223248274684</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.725551337890301</v>
@@ -25680,7 +25620,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.47052916015772</v>
+        <v>1.483813511689636</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.610350927141206</v>
@@ -25769,7 +25709,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.470626113897856</v>
+        <v>1.483168060251563</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.759284874486536</v>
@@ -25858,7 +25798,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.478198317427416</v>
+        <v>1.488026545533969</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.590193345956129</v>
@@ -25947,7 +25887,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.476519473799075</v>
+        <v>1.487501613548819</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.688718907553809</v>
@@ -26036,7 +25976,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.484661858670997</v>
+        <v>1.491449901794565</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.609891231624605</v>
@@ -26125,7 +26065,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.47131222810218</v>
+        <v>1.471299635915994</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.626464670138334</v>
@@ -26214,7 +26154,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.436061662228784</v>
+        <v>1.43996464930087</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.337196234348413</v>
@@ -26303,7 +26243,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.417603866011151</v>
+        <v>1.421242068140473</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.314495390097123</v>
@@ -26392,7 +26332,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.425312421512452</v>
+        <v>1.425279957532257</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.354676850622555</v>
@@ -26481,7 +26421,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.439504155335724</v>
+        <v>1.436272963442293</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.24426707430915</v>
@@ -26570,7 +26510,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.442788703657624</v>
+        <v>1.442975802309812</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.214385205261237</v>
@@ -26659,7 +26599,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.453070014706011</v>
+        <v>1.453788652697545</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.230784266906074</v>
@@ -26748,7 +26688,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.452581887515098</v>
+        <v>1.452719387033442</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.269610395382782</v>
@@ -26837,7 +26777,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.443192969071429</v>
+        <v>1.441434219326627</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.26341693084254</v>
@@ -26926,7 +26866,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.450422534522999</v>
+        <v>1.451145898155802</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.265494999864992</v>
@@ -27015,7 +26955,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.438176400860983</v>
+        <v>1.440280897647203</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.21824437403073</v>
@@ -27104,7 +27044,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.442926108536733</v>
+        <v>1.444358345225536</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.268836991890252</v>
@@ -27193,7 +27133,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.424139489737325</v>
+        <v>1.426094008919807</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.250942279277062</v>
@@ -27282,7 +27222,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.417062537109761</v>
+        <v>1.42321876862762</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.31370653241443</v>
@@ -27371,7 +27311,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.423554713854318</v>
+        <v>1.424825259527312</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.173123325357185</v>
@@ -27460,7 +27400,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.423694551182468</v>
+        <v>1.423220689072079</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.143599364496852</v>
@@ -27549,7 +27489,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.453988573735542</v>
+        <v>1.447698454454952</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.416239120129116</v>
@@ -27638,7 +27578,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.450666480493114</v>
+        <v>1.446573199206434</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.470058884719964</v>
@@ -27727,7 +27667,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.450623010177874</v>
+        <v>1.450241968191489</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.513401890112372</v>
@@ -27816,7 +27756,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.425431219135525</v>
+        <v>1.427806506830629</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.358130185690636</v>
@@ -27905,7 +27845,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.418821405917461</v>
+        <v>1.418386564109021</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.399335697004833</v>
@@ -27994,7 +27934,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.404803577481341</v>
+        <v>1.402119904193916</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.475611777907218</v>
@@ -28083,7 +28023,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.412024444838755</v>
+        <v>1.410208538891183</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.487522943809887</v>
@@ -28172,7 +28112,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.403345810457819</v>
+        <v>1.400363167404057</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.419385686548214</v>
@@ -28261,7 +28201,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.402587200979082</v>
+        <v>1.39522721606286</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.414575326894109</v>
@@ -28350,7 +28290,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.419653019783384</v>
+        <v>1.408040886872548</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.496575746303837</v>
@@ -28439,7 +28379,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.416357148118941</v>
+        <v>1.40465327150608</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.453708703069029</v>
@@ -28528,7 +28468,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.441811401774226</v>
+        <v>1.42817246880928</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.747537967270461</v>
@@ -28617,7 +28557,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.4499417864702</v>
+        <v>1.435124718817566</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.581805441324125</v>
@@ -28706,7 +28646,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.44767225572867</v>
+        <v>1.433409791396157</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.637847203124678</v>
@@ -28795,7 +28735,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.457036685937462</v>
+        <v>1.439501199788518</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.428786766761649</v>
@@ -28884,7 +28824,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.453865381931758</v>
+        <v>1.440580113407062</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.465887293205326</v>
@@ -28973,7 +28913,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.445050175078333</v>
+        <v>1.429788434077225</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.817338125811859</v>
@@ -29062,7 +29002,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.435290313253993</v>
+        <v>1.417764633775846</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.639256106367169</v>
@@ -29151,7 +29091,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.457771083702832</v>
+        <v>1.437355545996868</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.382569474741834</v>
@@ -29240,7 +29180,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.465637591118007</v>
+        <v>1.447885096512985</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.315690948984831</v>
@@ -29329,7 +29269,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.482532866972597</v>
+        <v>1.466579995924776</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.43645608262105</v>
@@ -29418,7 +29358,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.452541393584704</v>
+        <v>1.440259662378413</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.661304223627966</v>
@@ -29507,7 +29447,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.459467042673893</v>
+        <v>1.448148383796315</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.542867491514516</v>
@@ -29596,7 +29536,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.455076700832969</v>
+        <v>1.443708969025904</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.689216754405629</v>
@@ -29685,7 +29625,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.453941615149384</v>
+        <v>1.441970834672522</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.416437138908264</v>
@@ -29774,7 +29714,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.447780088664613</v>
+        <v>1.433628869935534</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.554770993996539</v>
@@ -29863,7 +29803,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.427206489556198</v>
+        <v>1.415364812952057</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.572532634726296</v>
@@ -29952,7 +29892,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.403492930380537</v>
+        <v>1.394916981601957</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.547277200716682</v>
@@ -30238,7 +30178,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.676296157006659</v>
+        <v>1.693560904181425</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.107358499743492</v>
@@ -30327,7 +30267,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.701476744575869</v>
+        <v>1.71816768043447</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.622589478773413</v>
@@ -30416,7 +30356,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.732079869064376</v>
+        <v>1.74340651218222</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.990868933224636</v>
@@ -30505,7 +30445,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.736301331469039</v>
+        <v>1.748569155044811</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.806672144049238</v>
@@ -30594,7 +30534,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.747612346768338</v>
+        <v>1.757188958372808</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.259872142421789</v>
@@ -30683,7 +30623,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.770108015970697</v>
+        <v>1.781791373893739</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.013094056650939</v>
@@ -30772,7 +30712,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.790299173744372</v>
+        <v>1.798271118913039</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.288733047945076</v>
@@ -30861,7 +30801,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.791445222809934</v>
+        <v>1.799303811868585</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.972346004469505</v>
@@ -30950,7 +30890,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.794045528685316</v>
+        <v>1.802845930618618</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.358469373274312</v>
@@ -31039,7 +30979,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.795466515959818</v>
+        <v>1.805940199943941</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.988276929182239</v>
@@ -31128,7 +31068,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.811286349505504</v>
+        <v>1.820662124294957</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.645318268750253</v>
@@ -31217,7 +31157,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.786347791644586</v>
+        <v>1.793996494663926</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.423276443595971</v>
@@ -31306,7 +31246,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.776097479829004</v>
+        <v>1.782831010839133</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.514549148921565</v>
@@ -31395,7 +31335,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.788490141196458</v>
+        <v>1.786088379468137</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.409956616542135</v>
@@ -31484,7 +31424,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.7750753474269</v>
+        <v>1.765177558104779</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.142263356140184</v>
@@ -31573,7 +31513,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.784765158940501</v>
+        <v>1.766361531663531</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.022326248290587</v>
@@ -31662,7 +31602,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.760725581572754</v>
+        <v>1.736125146890417</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.002453376172786</v>
@@ -31751,7 +31691,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.757470814298044</v>
+        <v>1.725469681557639</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.935727303016881</v>
@@ -31840,7 +31780,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.757236686684156</v>
+        <v>1.723653702343317</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.88654475561211</v>
@@ -31929,7 +31869,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.757949740249309</v>
+        <v>1.713111159245193</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.139729047184183</v>
@@ -32018,7 +31958,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.754276488170549</v>
+        <v>1.707234409342084</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.311884428883068</v>
@@ -32107,7 +32047,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.747896559459029</v>
+        <v>1.700031304246686</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.978914448136586</v>
@@ -32196,7 +32136,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.755653699447865</v>
+        <v>1.710288857545098</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.049656693716691</v>
@@ -32285,7 +32225,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.759655741855687</v>
+        <v>1.716615799088416</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.026056547464626</v>
@@ -32374,7 +32314,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.745320995687906</v>
+        <v>1.709256836869922</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.157405048126847</v>
@@ -32463,7 +32403,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.732494343878132</v>
+        <v>1.699688602675715</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.918539785880416</v>
@@ -32552,7 +32492,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.752293707475157</v>
+        <v>1.724169275542067</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.960444220521803</v>
@@ -32641,7 +32581,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.760832117938265</v>
+        <v>1.73646892246166</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.545053356178948</v>
@@ -32730,7 +32670,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.775181544723967</v>
+        <v>1.750034825848251</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.158788378027964</v>
@@ -32819,7 +32759,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.773654827188145</v>
+        <v>1.752209897527498</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.704260032311359</v>
@@ -32908,7 +32848,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.776861325258645</v>
+        <v>1.756996472242687</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.868586466245341</v>
@@ -32997,7 +32937,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.785375661185731</v>
+        <v>1.770863502389695</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.053476044204164</v>
@@ -33086,7 +33026,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.796375939283943</v>
+        <v>1.785862445401024</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.867012613527166</v>
@@ -33175,7 +33115,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.786497340538171</v>
+        <v>1.781383679917582</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.044510365479369</v>
@@ -33264,7 +33204,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.785724360763748</v>
+        <v>1.788250313159242</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.881364164804185</v>
@@ -33353,7 +33293,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.784397391417624</v>
+        <v>1.785987362508773</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.01465619168636</v>
@@ -33442,7 +33382,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.80055103758179</v>
+        <v>1.804765124275504</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.330331676480474</v>
@@ -33531,7 +33471,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.802472729890498</v>
+        <v>1.807744897839271</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.926845300466058</v>
@@ -33620,7 +33560,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.802130136548654</v>
+        <v>1.806861184388639</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.169525156385152</v>
@@ -33709,7 +33649,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.820280575821866</v>
+        <v>1.820281657970388</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.252517848445863</v>
@@ -33798,7 +33738,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.826868016197702</v>
+        <v>1.824389146930615</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.3083081061513</v>
@@ -33887,7 +33827,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.823921637984474</v>
+        <v>1.826601641746592</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.153951397939291</v>
@@ -33976,7 +33916,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.821426682843151</v>
+        <v>1.824954846244665</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.076659869525305</v>
@@ -34065,7 +34005,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.797222869539734</v>
+        <v>1.802441967407755</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.992601503541068</v>
@@ -34154,7 +34094,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.822616748626655</v>
+        <v>1.818460104923787</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.093254645231804</v>
@@ -34243,7 +34183,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.821945604869422</v>
+        <v>1.818252541117034</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.586950640519475</v>
@@ -34332,7 +34272,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.818476356867313</v>
+        <v>1.812309542533959</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.331632049166087</v>
@@ -34421,7 +34361,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.815016205409657</v>
+        <v>1.804366589825363</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.353332030782299</v>
@@ -34510,7 +34450,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.839184654807484</v>
+        <v>1.82303456768225</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.340181822689601</v>
@@ -34599,7 +34539,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.846674297273645</v>
+        <v>1.833755336242839</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.915537101203989</v>
@@ -34688,7 +34628,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.834501330692317</v>
+        <v>1.825284316146055</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.884541463804007</v>
@@ -34777,7 +34717,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.834549562887422</v>
+        <v>1.82101895525803</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.008325011134319</v>
@@ -34866,7 +34806,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.813238460487989</v>
+        <v>1.800903335816047</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.64287976071639</v>
